--- a/data/manager_list.xlsx
+++ b/data/manager_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C51789-2BBF-403B-8FDF-34D80BE1BA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42530BF-A336-49D9-A35C-8D5E61F8EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B417A229-1D33-4C1A-8D08-806E956420E9}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B417A229-1D33-4C1A-8D08-806E956420E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Department</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>123abc</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Mechanical HOD</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07CC082-5EC4-46A2-B965-E0EE994CD32D}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +542,10 @@
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -557,8 +567,11 @@
       <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -577,11 +590,14 @@
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -589,7 +605,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
@@ -597,7 +613,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -605,7 +621,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -613,7 +629,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="6"/>
@@ -621,7 +637,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
@@ -629,7 +645,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -637,7 +653,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -645,7 +661,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -653,7 +669,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -661,7 +677,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
@@ -669,7 +685,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -677,7 +693,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
@@ -685,7 +701,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>

--- a/data/manager_list.xlsx
+++ b/data/manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_965C35E334B858074EEF34D1CBA288BCBD32EBE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033739C7-7440-43EC-ADAA-679DA684F2E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD1D38-ACD6-47C3-84D6-2B69B127AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="6">
-        <v>9635006035</v>
+        <v>8145312848</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>

--- a/data/manager_list.xlsx
+++ b/data/manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD1D38-ACD6-47C3-84D6-2B69B127AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_965C35E334B858074EEF34D1CBA288BCBD32EBE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033739C7-7440-43EC-ADAA-679DA684F2E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,6 +382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="6">
-        <v>8145312848</v>
+        <v>9635006035</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>

--- a/data/manager_list.xlsx
+++ b/data/manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_965C35E334B858074EEF34D1CBA288BCBD32EBE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033739C7-7440-43EC-ADAA-679DA684F2E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85980AF-9FBE-41BB-B59C-0CE6C266DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,7 +675,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="6">
-        <v>9635006035</v>
+        <v>8145312848</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>

--- a/data/manager_list.xlsx
+++ b/data/manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85980AF-9FBE-41BB-B59C-0CE6C266DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_965C35E334B858074EEF34D1CBA288BCBD32EBE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033739C7-7440-43EC-ADAA-679DA684F2E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,6 +382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,7 +679,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="6">
-        <v>8145312848</v>
+        <v>9635006035</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>

--- a/data/manager_list.xlsx
+++ b/data/manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_965C35E334B858074EEF34D1CBA288BCBD32EBE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033739C7-7440-43EC-ADAA-679DA684F2E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90DAC7A-186F-4A12-B9DB-950C5D4DB121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet2!$B$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$26</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>Email</t>
   </si>
@@ -166,24 +177,12 @@
     <t>PILLP305</t>
   </si>
   <si>
-    <t>tapas.mandi@pillp.in</t>
-  </si>
-  <si>
     <t>Tapas Mandi</t>
   </si>
   <si>
     <t>PILLP013</t>
   </si>
   <si>
-    <t>satendranarayansingh86@gmail.com</t>
-  </si>
-  <si>
-    <t>Satendra Narayan Singh</t>
-  </si>
-  <si>
-    <t>PILLP016</t>
-  </si>
-  <si>
     <t>narendra.de@pillp.in</t>
   </si>
   <si>
@@ -220,14 +219,56 @@
     <t>Password</t>
   </si>
   <si>
-    <t>123abc</t>
+    <t>tapas7524</t>
+  </si>
+  <si>
+    <t>sc1992</t>
+  </si>
+  <si>
+    <t>Rahul@8868</t>
+  </si>
+  <si>
+    <t>Qwerty@1234</t>
+  </si>
+  <si>
+    <t>Naren@2000</t>
+  </si>
+  <si>
+    <t>Animesh.123</t>
+  </si>
+  <si>
+    <t>Prakash@2151</t>
+  </si>
+  <si>
+    <t>hprakesh</t>
+  </si>
+  <si>
+    <t>sourav1202</t>
+  </si>
+  <si>
+    <t>anish9932</t>
+  </si>
+  <si>
+    <t>rk20425</t>
+  </si>
+  <si>
+    <t>Pulak96</t>
+  </si>
+  <si>
+    <t>manoj@pillp#9124</t>
+  </si>
+  <si>
+    <t>Site Supervision</t>
+  </si>
+  <si>
+    <t>tapasmandi198@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +307,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,15 +384,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,6 +406,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -382,10 +435,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,19 +727,19 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,612 +762,614 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="12"/>
+      <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>7044168816</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>9593692481</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="13"/>
+      <c r="G3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>9907364815</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="G4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>9576134934</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>9474763555</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>9576134934</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>9576134934</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>9474763555</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>9907364815</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="G10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>9907364815</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>9907364815</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>9907364815</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="G13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>7719144852</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="10"/>
+      <c r="G14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>7364983808</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="G15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>7364983808</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="A17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="6">
-        <v>8292839087</v>
+      <c r="E17" s="5">
+        <v>6297067524</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="10"/>
+      <c r="G17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>9635006035</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="10"/>
+      <c r="G18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>8292839087</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="G19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>8292839087</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="G20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>9635006035</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5">
         <v>6297067524</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="13"/>
+      <c r="G22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="6">
-        <v>6291801225</v>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8637062729</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="6">
-        <v>8597038270</v>
+      <c r="D24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5">
+        <v>9674628868</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="G24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>9674628868</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="14"/>
+      <c r="G25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5">
+        <v>9875575905</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="6">
-        <v>9875575905</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="14"/>
+      <c r="G26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>